--- a/numpy/Titulo.xlsx
+++ b/numpy/Titulo.xlsx
@@ -439,12 +439,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Área de Residencia</t>
+          <t>Área de residencia</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Tipo Colegio</t>
+          <t>Tipo colegio</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -484,6 +484,21 @@
           <t>115320053</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,6 +506,21 @@
           <t>1105101947</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -498,6 +528,21 @@
           <t>1023100010</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Herrera</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +550,21 @@
           <t>1208200021</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -512,6 +572,21 @@
           <t>1050500050</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catalina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Jiménez</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -519,6 +594,21 @@
           <t>1207103056</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -526,6 +616,21 @@
           <t>105280059</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -533,6 +638,21 @@
           <t>1030403025</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Valeria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Suárez</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -540,6 +660,21 @@
           <t>113460189</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -547,6 +682,21 @@
           <t>1107601002</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -554,6 +704,21 @@
           <t>1010201548</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -561,6 +726,21 @@
           <t>120470102</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Álvarez</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -568,6 +748,21 @@
           <t>1098200145</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hernández</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -575,6 +770,21 @@
           <t>1020304050</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Martínez</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -582,6 +792,21 @@
           <t>1156794321</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -589,6 +814,21 @@
           <t>1098090087</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Suárez</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -596,6 +836,21 @@
           <t>1034</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Carolina</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -603,6 +858,21 @@
           <t>1011121314</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fernández</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -610,6 +880,21 @@
           <t>1080709021</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gutiérrez</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -617,6 +902,21 @@
           <t>1122233344</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -624,6 +924,21 @@
           <t>1132334455</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -631,6 +946,21 @@
           <t>1199887766</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -638,6 +968,21 @@
           <t>1029384757</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Herrera</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -645,6 +990,21 @@
           <t>1065432198</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sánchez</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -652,6 +1012,21 @@
           <t>1032003004</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rueda</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -659,6 +1034,21 @@
           <t>1076543219</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Álvarez</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -666,6 +1056,21 @@
           <t>1133557799</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cruz</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -673,6 +1078,21 @@
           <t>1002345678</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -680,6 +1100,21 @@
           <t>1199765432</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -687,6 +1122,21 @@
           <t>1087654321</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -694,6 +1144,21 @@
           <t>1010101010</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Hernández</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -701,6 +1166,21 @@
           <t>1133669933</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -708,6 +1188,21 @@
           <t>1223344556</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Valeria</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Gutiérrez</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -715,6 +1210,21 @@
           <t>1072938475</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ochoa</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -722,6 +1232,21 @@
           <t>1298765432</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Miguel</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rodríguez</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -729,6 +1254,21 @@
           <t>1002003004</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Paola</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cruz</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -736,6 +1276,21 @@
           <t>145856789</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -743,6 +1298,21 @@
           <t>1054309243</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -750,6 +1320,21 @@
           <t>1292837465</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -757,6 +1342,21 @@
           <t>1134334455</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Natalia</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Morales</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -764,6 +1364,21 @@
           <t>1085479315</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -771,6 +1386,21 @@
           <t>1054342</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Hernández</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -778,6 +1408,21 @@
           <t>1029354756</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Julián</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -785,6 +1430,21 @@
           <t>1182957394</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -792,6 +1452,21 @@
           <t>1239876543</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ríos</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -799,6 +1474,21 @@
           <t>1065432890</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Daniela</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Suárez</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -806,6 +1496,21 @@
           <t>1079564321</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Esteban</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -813,6 +1518,21 @@
           <t>1102948567</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rangel</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -820,6 +1540,21 @@
           <t>1049382715</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -827,6 +1562,21 @@
           <t>1023456689</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Martínez</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -834,6 +1584,21 @@
           <t>1123436789</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -841,6 +1606,21 @@
           <t>11567</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Díaz</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -848,6 +1628,21 @@
           <t>1234567890</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Herrera</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -855,6 +1650,21 @@
           <t>1082937465</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rodríguez</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -862,6 +1672,21 @@
           <t>1076543982</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -869,6 +1694,21 @@
           <t>1193765432</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Gabriela</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -876,6 +1716,21 @@
           <t>116723456</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sánchez</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -883,6 +1738,21 @@
           <t>1008765432</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Jiménez</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -890,6 +1760,21 @@
           <t>1209876543</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -897,6 +1782,21 @@
           <t>1256789345</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Luciana</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Silva</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -904,6 +1804,21 @@
           <t>1112223334</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -911,6 +1826,21 @@
           <t>1192837465</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Giraldo</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -918,6 +1848,21 @@
           <t>1178945601</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Morales</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -925,6 +1870,21 @@
           <t>1029344756</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Castañeda</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -932,6 +1892,21 @@
           <t>1052768432</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -939,6 +1914,21 @@
           <t>1122234455</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Herrera</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -946,6 +1936,21 @@
           <t>1176345870</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Molina</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -953,6 +1958,21 @@
           <t>1029381756</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -960,6 +1980,21 @@
           <t>1122134355</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Martínez</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -967,6 +2002,21 @@
           <t>1102938475</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Juanita</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Zapata</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -974,6 +2024,21 @@
           <t>1056789342</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -981,6 +2046,21 @@
           <t>1176018345</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sánche</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -988,6 +2068,21 @@
           <t>1176413890</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Esteban</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -995,6 +2090,21 @@
           <t>1029384756</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Hernández</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1002,6 +2112,21 @@
           <t>1122134455</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1009,6 +2134,21 @@
           <t>1173098345</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Vega</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1016,6 +2156,21 @@
           <t>1189076543</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1023,6 +2178,21 @@
           <t>1054876321</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Álvarez</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1030,6 +2200,21 @@
           <t>1122334455</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Catalina</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Morales</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1037,6 +2222,21 @@
           <t>1198765432</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1044,6 +2244,21 @@
           <t>1176098345</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Luciana</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Rodríguez</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1051,6 +2266,21 @@
           <t>1098735432</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1058,6 +2288,21 @@
           <t>1176453890</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Castillo</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1065,6 +2310,21 @@
           <t>1012345678</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1072,6 +2332,21 @@
           <t>1143256789</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Nicolás</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1079,6 +2354,21 @@
           <t>1098765432</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1086,6 +2376,21 @@
           <t>1176091345</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1093,6 +2398,21 @@
           <t>1038475621</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Juliana</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ríos</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1100,6 +2420,21 @@
           <t>1156098732</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Giraldo</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1107,6 +2442,21 @@
           <t>1109876543</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Hernández</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1114,6 +2464,21 @@
           <t>1089765321</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Alejandra</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Castillo</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1121,6 +2486,21 @@
           <t>1029184756</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Vélez</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1128,6 +2508,21 @@
           <t>1123456789</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Daniela</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1135,6 +2530,21 @@
           <t>1045678912</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1142,6 +2552,21 @@
           <t>1134567890</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rodríguez</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1149,6 +2574,21 @@
           <t>1187654321</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1156,6 +2596,21 @@
           <t>1009876543</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Andrea</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1163,6 +2618,21 @@
           <t>1076543210</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Mendoza</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1170,6 +2640,21 @@
           <t>1098765412</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Arango</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1177,6 +2662,21 @@
           <t>1012345618</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Gutiérrez</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1184,6 +2684,21 @@
           <t>1023456789</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1191,6 +2706,21 @@
           <t>1045678901</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ríos</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1198,6 +2728,21 @@
           <t>1122334155</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1205,6 +2750,21 @@
           <t>1155667788</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1212,6 +2772,21 @@
           <t>1199221188</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Andrea</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Montoya</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1219,6 +2794,21 @@
           <t>1212121212</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1226,6 +2816,21 @@
           <t>1234321043</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Carvajal</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1233,6 +2838,21 @@
           <t>1254768256</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1240,6 +2860,21 @@
           <t>1277731411</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Daniela</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Escobar</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1247,6 +2882,21 @@
           <t>1298139463</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Restrepo</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1254,6 +2904,21 @@
           <t>1312145556</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Valeria</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Giraldo</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1261,6 +2926,21 @@
           <t>102345679</t>
         </is>
       </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1268,6 +2948,21 @@
           <t>109876543</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Andres</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Duque</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1275,6 +2970,21 @@
           <t>106789034</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Acosta</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1282,6 +2992,21 @@
           <t>103467890</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Jimenez</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1289,6 +3014,21 @@
           <t>108956743</t>
         </is>
       </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1296,6 +3036,21 @@
           <t>100000078</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rios</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1303,6 +3058,21 @@
           <t>102378645</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Suarez</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1310,6 +3080,21 @@
           <t>108975034</t>
         </is>
       </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1317,6 +3102,21 @@
           <t>100987605</t>
         </is>
       </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1324,6 +3124,21 @@
           <t>106754390</t>
         </is>
       </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1331,6 +3146,21 @@
           <t>105684739</t>
         </is>
       </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Marin</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1338,6 +3168,21 @@
           <t>109870215</t>
         </is>
       </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Suarez</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1345,6 +3190,21 @@
           <t>102349876</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Ramirez</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1352,6 +3212,21 @@
           <t>108927654</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1359,6 +3234,21 @@
           <t>108934506</t>
         </is>
       </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1366,6 +3256,21 @@
           <t>101234567</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sánchez</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1373,6 +3278,21 @@
           <t>108975023</t>
         </is>
       </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Mariana</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1380,6 +3300,21 @@
           <t>105673890</t>
         </is>
       </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1387,6 +3322,21 @@
           <t>109875340</t>
         </is>
       </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1394,6 +3344,21 @@
           <t>103456789</t>
         </is>
       </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Hernandez</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1401,6 +3366,21 @@
           <t>109876553</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1408,6 +3388,21 @@
           <t>104567390</t>
         </is>
       </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1415,6 +3410,21 @@
           <t>109876023</t>
         </is>
       </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1422,6 +3432,21 @@
           <t>107895623</t>
         </is>
       </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -1429,6 +3454,21 @@
           <t>103456780</t>
         </is>
       </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Fernández</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -1436,6 +3476,21 @@
           <t>109276543</t>
         </is>
       </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Gutierrez</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -1443,6 +3498,21 @@
           <t>102345670</t>
         </is>
       </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Molina</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -1450,6 +3520,21 @@
           <t>108976540</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -1457,6 +3542,21 @@
           <t>104567890</t>
         </is>
       </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -1464,6 +3564,21 @@
           <t>103456781</t>
         </is>
       </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -1471,6 +3586,21 @@
           <t>106789012</t>
         </is>
       </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Moreno</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -1478,6 +3608,21 @@
           <t>109012345</t>
         </is>
       </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -1485,6 +3630,21 @@
           <t>107890</t>
         </is>
       </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -1492,6 +3652,21 @@
           <t>105678901</t>
         </is>
       </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -1499,6 +3674,21 @@
           <t>101334567</t>
         </is>
       </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Catalina</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ruiz</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -1506,6 +3696,21 @@
           <t>109873543</t>
         </is>
       </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Hernández</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -1513,6 +3718,21 @@
           <t>122345678</t>
         </is>
       </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -1520,6 +3740,21 @@
           <t>105436109</t>
         </is>
       </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -1527,6 +3762,21 @@
           <t>107654721</t>
         </is>
       </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -1534,6 +3784,21 @@
           <t>103210187</t>
         </is>
       </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Molina</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -1541,6 +3806,21 @@
           <t>106543110</t>
         </is>
       </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -1548,6 +3828,21 @@
           <t>100002001</t>
         </is>
       </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Montoya</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -1555,6 +3850,21 @@
           <t>101876543</t>
         </is>
       </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -1562,6 +3872,21 @@
           <t>102345678</t>
         </is>
       </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -1569,6 +3894,21 @@
           <t>105432109</t>
         </is>
       </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -1576,6 +3916,21 @@
           <t>107654321</t>
         </is>
       </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -1583,6 +3938,21 @@
           <t>103210987</t>
         </is>
       </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Morales</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -1590,6 +3960,21 @@
           <t>106543210</t>
         </is>
       </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Osorio</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -1597,6 +3982,21 @@
           <t>100000001</t>
         </is>
       </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -1604,6 +4004,21 @@
           <t>1022384756</t>
         </is>
       </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>José</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -1611,6 +4026,21 @@
           <t>1198735432</t>
         </is>
       </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rodríguez</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -1618,6 +4048,21 @@
           <t>1048573962</t>
         </is>
       </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -1625,6 +4070,21 @@
           <t>1074839201</t>
         </is>
       </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -1632,6 +4092,21 @@
           <t>1032</t>
         </is>
       </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Fernández</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -1639,6 +4114,21 @@
           <t>1019283745</t>
         </is>
       </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Catalina</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -1646,6 +4136,21 @@
           <t>1065748392</t>
         </is>
       </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Herrera</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -1653,6 +4158,21 @@
           <t>1047638291</t>
         </is>
       </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Peña</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -1660,6 +4180,21 @@
           <t>1032716495</t>
         </is>
       </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Cruz</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -1667,6 +4202,21 @@
           <t>1083947562</t>
         </is>
       </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Natalia</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ruiz</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -1674,6 +4224,21 @@
           <t>1015382947</t>
         </is>
       </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Moreno</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -1681,6 +4246,21 @@
           <t>1063947852</t>
         </is>
       </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Alejandra</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Hernández</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -1688,6 +4268,21 @@
           <t>1098573642</t>
         </is>
       </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -1695,6 +4290,21 @@
           <t>1029473856</t>
         </is>
       </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -1702,6 +4312,21 @@
           <t>1038475961</t>
         </is>
       </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Ríos</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -1709,6 +4334,21 @@
           <t>1057382910</t>
         </is>
       </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -1716,6 +4356,21 @@
           <t>1029384761</t>
         </is>
       </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Herrera</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -1723,6 +4378,21 @@
           <t>1098347612</t>
         </is>
       </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -1730,6 +4400,21 @@
           <t>1057392876</t>
         </is>
       </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -1737,6 +4422,21 @@
           <t>1047382910</t>
         </is>
       </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Mariana</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -1744,6 +4444,21 @@
           <t>1023849576</t>
         </is>
       </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -1751,6 +4466,21 @@
           <t>1069873425</t>
         </is>
       </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -1758,6 +4488,21 @@
           <t>1029284756</t>
         </is>
       </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Gutiérrez</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -1765,6 +4510,21 @@
           <t>1073849576</t>
         </is>
       </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Valeria</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Sánchez</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -1772,6 +4532,21 @@
           <t>1098347526</t>
         </is>
       </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Rivera</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -1779,6 +4554,21 @@
           <t>1047385920</t>
         </is>
       </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Muñoz</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -1786,6 +4576,21 @@
           <t>1069834257</t>
         </is>
       </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Franco</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -1793,6 +4598,21 @@
           <t>1029384576</t>
         </is>
       </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Vega</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -1800,6 +4620,21 @@
           <t>1092384567</t>
         </is>
       </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Mariana</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Castañeda</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -1807,6 +4642,21 @@
           <t>1082384756</t>
         </is>
       </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Rincón</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Mascu</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -1814,6 +4664,21 @@
           <t>1092387465</t>
         </is>
       </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Naranjo</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -1821,6 +4686,21 @@
           <t>1084739201</t>
         </is>
       </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -1828,6 +4708,21 @@
           <t>1073849506</t>
         </is>
       </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Martina</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Rodríguez</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -1835,6 +4730,21 @@
           <t>1065879234</t>
         </is>
       </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Martínez</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -1842,6 +4752,21 @@
           <t>1092837564</t>
         </is>
       </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Acosta</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -1849,6 +4774,21 @@
           <t>1085739284</t>
         </is>
       </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -1856,6 +4796,21 @@
           <t>1093784950</t>
         </is>
       </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -1863,6 +4818,21 @@
           <t>1082749501</t>
         </is>
       </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Herrera</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -1870,6 +4840,21 @@
           <t>1092837495</t>
         </is>
       </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -1877,6 +4862,21 @@
           <t>1072384956</t>
         </is>
       </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -1884,6 +4884,21 @@
           <t>108374</t>
         </is>
       </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Suárez</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -1891,6 +4906,21 @@
           <t>1079283746</t>
         </is>
       </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Daniela</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -1898,6 +4928,21 @@
           <t>1082849502</t>
         </is>
       </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Mariana</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -1905,6 +4950,21 @@
           <t>1091849283</t>
         </is>
       </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -1912,6 +4972,21 @@
           <t>1072394859</t>
         </is>
       </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -1919,6 +4994,21 @@
           <t>1082937495</t>
         </is>
       </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Migue</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Rivera</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -1926,6 +5016,21 @@
           <t>1091849502</t>
         </is>
       </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Fernández</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -1933,6 +5038,21 @@
           <t>1085749385</t>
         </is>
       </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -1940,6 +5060,21 @@
           <t>1082938495</t>
         </is>
       </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Jiménez</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -1947,6 +5082,21 @@
           <t>1093849584</t>
         </is>
       </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -1954,6 +5104,21 @@
           <t>1081939405</t>
         </is>
       </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -1961,6 +5126,21 @@
           <t>1071939405</t>
         </is>
       </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Daniela</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Muñoz</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -1968,6 +5148,21 @@
           <t>1092918405</t>
         </is>
       </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -1975,6 +5170,21 @@
           <t>1082939405</t>
         </is>
       </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Gutiérrez</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -1982,6 +5192,21 @@
           <t>1093849304</t>
         </is>
       </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Rodríguez</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -1989,6 +5214,21 @@
           <t>1082938493</t>
         </is>
       </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -1996,6 +5236,21 @@
           <t>1082919501</t>
         </is>
       </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Gómez</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -2003,6 +5258,21 @@
           <t>1092919304</t>
         </is>
       </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Martínez</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -2010,6 +5280,21 @@
           <t>1082949304</t>
         </is>
       </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -2017,6 +5302,21 @@
           <t>1071949551</t>
         </is>
       </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -2024,6 +5324,21 @@
           <t>1093849415</t>
         </is>
       </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Valeria</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Ramírez</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -2031,6 +5346,21 @@
           <t>1083949284</t>
         </is>
       </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Sánchez</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -2038,6 +5368,21 @@
           <t>1092939304</t>
         </is>
       </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Martina</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Álvarez</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -2045,6 +5390,21 @@
           <t>1083949584</t>
         </is>
       </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -2052,6 +5412,21 @@
           <t>1092938405</t>
         </is>
       </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Luciana</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Suárez</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -2059,6 +5434,21 @@
           <t>1082949501</t>
         </is>
       </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Ospina</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Mascu</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -2066,6 +5456,21 @@
           <t>1092949304</t>
         </is>
       </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Castañeda</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -2073,6 +5478,21 @@
           <t>1083949304</t>
         </is>
       </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -2080,6 +5500,21 @@
           <t>1071949501</t>
         </is>
       </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -2087,6 +5522,21 @@
           <t>1093849405</t>
         </is>
       </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -2094,6 +5544,21 @@
           <t>1099568455</t>
         </is>
       </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Gabriela</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Arango</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -2101,6 +5566,21 @@
           <t>1022384456</t>
         </is>
       </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -2108,6 +5588,21 @@
           <t>1119383721</t>
         </is>
       </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Hernández</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -2115,6 +5610,21 @@
           <t>1019382726</t>
         </is>
       </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -2122,6 +5632,21 @@
           <t>1009451289</t>
         </is>
       </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Miguel</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Muñoz</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -2129,6 +5654,21 @@
           <t>1029374618</t>
         </is>
       </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Sánchez</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -2136,6 +5676,21 @@
           <t>1009237465</t>
         </is>
       </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Díaz</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -2143,6 +5698,21 @@
           <t>1092381726</t>
         </is>
       </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Andrea</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -2150,6 +5720,21 @@
           <t>1001234567</t>
         </is>
       </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -2157,6 +5742,21 @@
           <t>1012335678</t>
         </is>
       </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -2164,6 +5764,21 @@
           <t>1023454789</t>
         </is>
       </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -2171,6 +5786,21 @@
           <t>1034557890</t>
         </is>
       </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Garc</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -2178,6 +5808,21 @@
           <t>1045672901</t>
         </is>
       </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Fernandez</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -2185,6 +5830,21 @@
           <t>1056789012</t>
         </is>
       </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -2192,6 +5852,21 @@
           <t>1067890123</t>
         </is>
       </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -2199,6 +5874,21 @@
           <t>1078901234</t>
         </is>
       </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -2206,6 +5896,21 @@
           <t>1089012345</t>
         </is>
       </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Rodrig</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -2213,6 +5918,21 @@
           <t>1090123456</t>
         </is>
       </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -2220,6 +5940,21 @@
           <t>1101234567</t>
         </is>
       </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Valeria</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Fernandez</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -2227,6 +5962,21 @@
           <t>1112345678</t>
         </is>
       </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -2234,6 +5984,21 @@
           <t>1123454789</t>
         </is>
       </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Daniela</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -2241,6 +6006,21 @@
           <t>1134567490</t>
         </is>
       </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Andrés</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Rodrigue</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -2248,6 +6028,21 @@
           <t>1156789012</t>
         </is>
       </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Andrea</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -2255,6 +6050,21 @@
           <t>1167890123</t>
         </is>
       </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -2262,6 +6072,21 @@
           <t>1178901234</t>
         </is>
       </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Juliana</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -2269,6 +6094,21 @@
           <t>1189012345</t>
         </is>
       </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -2276,6 +6116,21 @@
           <t>1190123456</t>
         </is>
       </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -2283,6 +6138,21 @@
           <t>1201234567</t>
         </is>
       </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -2290,6 +6160,21 @@
           <t>1212345678</t>
         </is>
       </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Mariana</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -2297,6 +6182,21 @@
           <t>1223456789</t>
         </is>
       </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -2304,6 +6204,21 @@
           <t>1234367890</t>
         </is>
       </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -2311,6 +6226,21 @@
           <t>1245678901</t>
         </is>
       </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -2318,6 +6248,21 @@
           <t>1256789012</t>
         </is>
       </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -2325,6 +6270,21 @@
           <t>1267890123</t>
         </is>
       </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -2332,6 +6292,21 @@
           <t>1289012345</t>
         </is>
       </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -2339,6 +6314,21 @@
           <t>1290123456</t>
         </is>
       </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Andres</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -2346,6 +6336,21 @@
           <t>1301234567</t>
         </is>
       </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -2353,6 +6358,21 @@
           <t>1312345678</t>
         </is>
       </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Mateo</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -2360,6 +6380,21 @@
           <t>1323456789</t>
         </is>
       </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Valeria</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -2367,6 +6402,21 @@
           <t>1334567890</t>
         </is>
       </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Antonio</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -2374,6 +6424,21 @@
           <t>1345678901</t>
         </is>
       </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Daniela</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -2381,6 +6446,21 @@
           <t>1356789012</t>
         </is>
       </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -2388,6 +6468,21 @@
           <t>1367890123</t>
         </is>
       </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -2395,6 +6490,21 @@
           <t>1378901234</t>
         </is>
       </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Miguel</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -2402,6 +6512,21 @@
           <t>1389012345</t>
         </is>
       </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Carolina</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -2409,6 +6534,21 @@
           <t>1390123456</t>
         </is>
       </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -2416,6 +6556,21 @@
           <t>1401234567</t>
         </is>
       </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Pere</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -2423,6 +6578,21 @@
           <t>1423456789</t>
         </is>
       </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -2430,6 +6600,21 @@
           <t>1434567890</t>
         </is>
       </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -2437,6 +6622,21 @@
           <t>1445678901</t>
         </is>
       </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -2444,6 +6644,21 @@
           <t>1456789012</t>
         </is>
       </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -2451,6 +6666,21 @@
           <t>1467890123</t>
         </is>
       </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -2458,6 +6688,21 @@
           <t>1478901234</t>
         </is>
       </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -2465,6 +6710,21 @@
           <t>1489012345</t>
         </is>
       </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Mariana</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -2472,6 +6732,21 @@
           <t>1490123456</t>
         </is>
       </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -2479,6 +6754,21 @@
           <t>1501234567</t>
         </is>
       </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -2486,6 +6776,21 @@
           <t>1512345678</t>
         </is>
       </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Andres</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Rodrig</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -2493,6 +6798,21 @@
           <t>1523456789</t>
         </is>
       </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -2500,6 +6820,21 @@
           <t>1534567890</t>
         </is>
       </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -2507,6 +6842,21 @@
           <t>1545678901</t>
         </is>
       </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -2514,6 +6864,21 @@
           <t>1567890123</t>
         </is>
       </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Valeria</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Jimenez</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -2521,6 +6886,21 @@
           <t>1578901234</t>
         </is>
       </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -2528,6 +6908,21 @@
           <t>1589012345</t>
         </is>
       </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -2535,6 +6930,21 @@
           <t>1590123456</t>
         </is>
       </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -2542,6 +6952,21 @@
           <t>1601234567</t>
         </is>
       </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Valentina</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -2549,6 +6974,21 @@
           <t>1612345678</t>
         </is>
       </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Andres</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -2556,6 +6996,21 @@
           <t>1623456789</t>
         </is>
       </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Mariana</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -2563,6 +7018,21 @@
           <t>1634567890</t>
         </is>
       </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -2570,6 +7040,21 @@
           <t>1645678901</t>
         </is>
       </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -2577,6 +7062,21 @@
           <t>1656789012</t>
         </is>
       </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -2584,6 +7084,21 @@
           <t>1667890123</t>
         </is>
       </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -2591,11 +7106,41 @@
           <t>1678901234</t>
         </is>
       </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
           <t>1689012345</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Femenino</t>
         </is>
       </c>
     </row>

--- a/numpy/Titulo.xlsx
+++ b/numpy/Titulo.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Nota Matematicas</t>
+          <t>Nota Matemáticas</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -469,12 +469,12 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Apoyo Economico Padres</t>
+          <t>Apoyo económico de padres</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Ultimo Grado Cursando</t>
+          <t>Último grado cursando</t>
         </is>
       </c>
     </row>
@@ -499,6 +499,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -543,6 +553,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,6 +607,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +634,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -631,6 +661,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -653,6 +688,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -675,6 +715,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -697,6 +742,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -719,6 +769,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -741,6 +796,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -763,6 +823,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -785,6 +850,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -807,6 +877,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -829,6 +904,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -851,6 +931,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -895,6 +985,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -917,6 +1012,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -939,6 +1039,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -961,6 +1066,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -983,6 +1093,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1005,6 +1120,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1027,6 +1147,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1049,6 +1174,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1071,6 +1201,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1093,6 +1228,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1115,6 +1255,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1137,6 +1282,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1159,6 +1309,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1181,6 +1336,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1203,6 +1363,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1225,6 +1390,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1247,6 +1417,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1269,6 +1444,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1291,6 +1471,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1313,6 +1498,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1335,6 +1525,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1357,6 +1552,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1379,6 +1579,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1401,6 +1606,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1423,6 +1633,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1445,6 +1660,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1467,6 +1687,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1489,6 +1714,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1511,6 +1741,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1533,6 +1768,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1555,6 +1795,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1577,6 +1822,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1599,6 +1849,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1621,6 +1876,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1643,6 +1903,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1665,6 +1930,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1687,6 +1957,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1709,6 +1984,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1731,6 +2011,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1753,6 +2038,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1775,6 +2065,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1797,6 +2092,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1819,6 +2119,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1841,6 +2146,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1863,6 +2173,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1885,6 +2200,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1907,6 +2227,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1929,6 +2254,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1951,6 +2281,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1973,6 +2308,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1995,6 +2335,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2017,6 +2362,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2039,6 +2389,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2061,6 +2416,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2083,6 +2443,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2105,6 +2470,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2127,6 +2497,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2149,6 +2524,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2171,6 +2551,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2193,6 +2578,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2215,6 +2605,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2237,6 +2632,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2259,6 +2659,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2281,6 +2686,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2303,6 +2713,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2325,6 +2740,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2347,6 +2767,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2369,6 +2794,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2391,6 +2821,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2413,6 +2848,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2435,6 +2875,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2457,6 +2902,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2479,6 +2929,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2501,6 +2956,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2523,6 +2983,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2545,6 +3010,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2567,6 +3037,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2589,6 +3064,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2611,6 +3091,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2633,6 +3118,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2655,6 +3145,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2677,6 +3172,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2699,6 +3199,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2721,6 +3226,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2743,6 +3253,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2765,6 +3280,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2787,6 +3307,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2809,6 +3334,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2831,6 +3361,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2853,6 +3388,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2875,6 +3415,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2897,6 +3442,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2919,6 +3469,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2941,6 +3496,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2963,6 +3523,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2985,6 +3550,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3007,6 +3577,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3029,6 +3604,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3051,6 +3631,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3073,6 +3658,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3095,6 +3685,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3117,6 +3712,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3139,6 +3739,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3161,6 +3766,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3183,6 +3793,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3205,6 +3820,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3227,6 +3847,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3249,6 +3874,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3271,6 +3901,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3293,6 +3928,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3315,6 +3955,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3337,6 +3982,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3359,6 +4009,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3381,6 +4036,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3403,6 +4063,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3425,6 +4090,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3447,6 +4117,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3469,6 +4144,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3491,6 +4171,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3513,6 +4198,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3535,6 +4225,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3557,6 +4252,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3579,6 +4279,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3601,6 +4306,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3623,6 +4333,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3645,6 +4360,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3667,6 +4387,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3689,6 +4414,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3711,6 +4441,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3733,6 +4468,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3755,6 +4495,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3777,6 +4522,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3799,6 +4549,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3821,6 +4576,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3843,6 +4603,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3865,6 +4630,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3887,6 +4657,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3909,6 +4684,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3931,6 +4711,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3953,6 +4738,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3975,6 +4765,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3997,6 +4792,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4019,6 +4819,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4041,6 +4846,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4063,6 +4873,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4085,6 +4900,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4107,6 +4927,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4129,6 +4954,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4151,6 +4981,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4173,6 +5008,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4195,6 +5035,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4217,6 +5062,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4239,6 +5089,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4261,6 +5116,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4283,6 +5143,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4305,6 +5170,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4327,6 +5197,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4349,6 +5224,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4371,6 +5251,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4393,6 +5278,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4415,6 +5305,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4437,6 +5332,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4459,6 +5359,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4481,6 +5386,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4503,6 +5413,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4525,6 +5440,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4547,6 +5467,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4569,6 +5494,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4591,6 +5521,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4613,6 +5548,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4635,6 +5575,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4657,6 +5602,11 @@
           <t>Mascu</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4679,6 +5629,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4701,6 +5656,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4723,6 +5683,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4745,6 +5710,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4767,6 +5737,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4789,6 +5764,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4811,6 +5791,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4833,6 +5818,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4855,6 +5845,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4877,6 +5872,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4899,6 +5899,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4921,6 +5926,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4943,6 +5953,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4965,6 +5980,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4987,6 +6007,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5009,6 +6034,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5031,6 +6061,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5053,6 +6088,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5075,6 +6115,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5097,6 +6142,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5119,6 +6169,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5141,6 +6196,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5163,6 +6223,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5185,6 +6250,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5207,6 +6277,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5229,6 +6304,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5251,6 +6331,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5273,6 +6358,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5295,6 +6385,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5317,6 +6412,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5339,6 +6439,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5361,6 +6466,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5383,6 +6493,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5405,6 +6520,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5427,6 +6547,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5449,6 +6574,11 @@
           <t>Mascu</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5471,6 +6601,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5493,6 +6628,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5515,6 +6655,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5537,6 +6682,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5559,6 +6709,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5581,6 +6736,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5603,6 +6763,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5625,6 +6790,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5647,6 +6817,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5669,6 +6844,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5691,6 +6871,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5713,6 +6898,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5735,6 +6925,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5757,6 +6952,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5779,6 +6979,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5801,6 +7006,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5823,6 +7033,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5845,6 +7060,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5867,6 +7087,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5889,6 +7114,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5911,6 +7141,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5933,6 +7168,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5955,6 +7195,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5977,6 +7222,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5999,6 +7249,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6021,6 +7276,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6043,6 +7303,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6065,6 +7330,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6087,6 +7357,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6109,6 +7384,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6131,6 +7411,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6153,6 +7438,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6175,6 +7465,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6197,6 +7492,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6219,6 +7519,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6241,6 +7546,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6263,6 +7573,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6285,6 +7600,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6307,6 +7627,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6329,6 +7654,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6351,6 +7681,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6373,6 +7708,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6395,6 +7735,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6417,6 +7762,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6439,6 +7789,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6461,6 +7816,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6483,6 +7843,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6505,6 +7870,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6527,6 +7897,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6549,6 +7924,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6571,6 +7951,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6593,6 +7978,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6615,6 +8005,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6637,6 +8032,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6659,6 +8059,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6681,6 +8086,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6703,6 +8113,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6725,6 +8140,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6747,6 +8167,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6769,6 +8194,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6791,6 +8221,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6813,6 +8248,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6835,6 +8275,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6857,6 +8302,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6879,6 +8329,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6901,6 +8356,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6923,6 +8383,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6945,6 +8410,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6967,6 +8437,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6989,6 +8464,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7011,6 +8491,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7033,6 +8518,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7055,6 +8545,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7077,6 +8572,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7099,6 +8599,11 @@
           <t>Femenino</t>
         </is>
       </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7121,6 +8626,11 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7141,6 +8651,11 @@
       <c r="F304" t="inlineStr">
         <is>
           <t>Femenino</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
